--- a/project5/step_reponse.xlsx
+++ b/project5/step_reponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlene\Documents\GitHub\EMBE-Group\project5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16299CB2-8595-467A-83D3-9E8EB25EE209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A807D09-63AF-4D32-B00B-A2F0FB57D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{793B2A9A-B7AB-43B6-8054-1BA9591898D5}"/>
   </bookViews>
@@ -25,32 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
-  <si>
-    <t>w: 0.00</t>
-  </si>
-  <si>
-    <t>w_ref: 8.00</t>
-  </si>
-  <si>
-    <t>w: 7.21</t>
-  </si>
-  <si>
-    <t>w: 7.28</t>
-  </si>
-  <si>
-    <t>w: 7.38</t>
-  </si>
-  <si>
-    <t>w: 7.33</t>
-  </si>
-  <si>
-    <t>w: 7.30</t>
-  </si>
-  <si>
-    <t> w: 7.35</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -107,6 +82,1040 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>omega</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E386-4590-B8AB-B1D62A977A47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>omega ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$6:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E386-4590-B8AB-B1D62A977A47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1917384719"/>
+        <c:axId val="1829386783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1917384719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1829386783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1829386783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>rad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917384719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F936BC37-116B-EF9A-E9EB-EBE6ECB7D20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,7 +1418,7 @@
   <dimension ref="B6:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,10 +1427,10 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -429,10 +1438,10 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
@@ -440,10 +1449,10 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
@@ -451,10 +1460,10 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
@@ -462,10 +1471,10 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -473,81 +1482,82 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7.21</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>7.28</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>7.38</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>7.33</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>7.21</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>7.3</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>7.35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project5/step_reponse.xlsx
+++ b/project5/step_reponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlene\Documents\GitHub\EMBE-Group\project5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A807D09-63AF-4D32-B00B-A2F0FB57D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6ECD64-952D-41CB-88F2-08702A33C75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{793B2A9A-B7AB-43B6-8054-1BA9591898D5}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/project5/step_reponse.xlsx
+++ b/project5/step_reponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlene\Documents\GitHub\EMBE-Group\project5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6ECD64-952D-41CB-88F2-08702A33C75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF87EC70-A35A-495B-B71B-1C437AAECC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{793B2A9A-B7AB-43B6-8054-1BA9591898D5}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -237,6 +241,455 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E386-4590-B8AB-B1D62A977A47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1917384719"/>
+        <c:axId val="1829386783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1917384719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1829386783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1829386783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>rad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> / s</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917384719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>omega</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$20:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B5B-4166-85B7-7BF3E2C0B53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>omega ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$20:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B5B-4166-85B7-7BF3E2C0B53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -557,6 +1010,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1073,20 +1566,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1106,6 +2115,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38868A9-F69B-4920-A983-D2C69DB8310D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1411,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF0DE4-E780-4E38-B70E-35473B9D4975}">
-  <dimension ref="B6:D17"/>
+  <dimension ref="B6:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,6 +2598,118 @@
         <v>7.35</v>
       </c>
     </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>8.19</v>
+      </c>
+      <c r="C23">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>12.48</v>
+      </c>
+      <c r="C24">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>12.48</v>
+      </c>
+      <c r="C25">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>12.48</v>
+      </c>
+      <c r="C26">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>12.48</v>
+      </c>
+      <c r="C27">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>12.48</v>
+      </c>
+      <c r="C28">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>12.48</v>
+      </c>
+      <c r="C29">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>12.48</v>
+      </c>
+      <c r="C30">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>12.48</v>
+      </c>
+      <c r="C31">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>12.48</v>
+      </c>
+      <c r="C32">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>12.48</v>
+      </c>
+      <c r="C33">
+        <v>9.58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
